--- a/VARIABLES/gasNatural_filtrat.xlsx
+++ b/VARIABLES/gasNatural_filtrat.xlsx
@@ -591,7 +591,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45452</v>
+        <v>45541</v>
       </c>
       <c r="B7" t="n">
         <v>2.881</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45445</v>
+        <v>45328</v>
       </c>
       <c r="B8" t="n">
         <v>2.918</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45424</v>
+        <v>45631</v>
       </c>
       <c r="B11" t="n">
         <v>2.626</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45389</v>
+        <v>45477</v>
       </c>
       <c r="B16" t="n">
         <v>1.77</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45361</v>
+        <v>45568</v>
       </c>
       <c r="B20" t="n">
         <v>1.655</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45333</v>
+        <v>45598</v>
       </c>
       <c r="B24" t="n">
         <v>1.609</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45326</v>
+        <v>45384</v>
       </c>
       <c r="B25" t="n">
         <v>1.847</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45298</v>
+        <v>45474</v>
       </c>
       <c r="B29" t="n">
         <v>3.313</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45270</v>
+        <v>45211</v>
       </c>
       <c r="B33" t="n">
         <v>2.491</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45263</v>
+        <v>44997</v>
       </c>
       <c r="B34" t="n">
         <v>2.581</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45242</v>
+        <v>45271</v>
       </c>
       <c r="B37" t="n">
         <v>2.96</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45235</v>
+        <v>45057</v>
       </c>
       <c r="B38" t="n">
         <v>3.033</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45207</v>
+        <v>45148</v>
       </c>
       <c r="B42" t="n">
         <v>3.236</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45200</v>
+        <v>44936</v>
       </c>
       <c r="B43" t="n">
         <v>3.338</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45179</v>
+        <v>45208</v>
       </c>
       <c r="B46" t="n">
         <v>2.644</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45172</v>
+        <v>44994</v>
       </c>
       <c r="B47" t="n">
         <v>2.605</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45144</v>
+        <v>45085</v>
       </c>
       <c r="B51" t="n">
         <v>2.77</v>

--- a/VARIABLES/gasNatural_filtrat.xlsx
+++ b/VARIABLES/gasNatural_filtrat.xlsx
@@ -736,7 +736,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45633</v>
+        <v>45485</v>
       </c>
       <c r="B10" t="n">
         <v>2.331</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45603</v>
+        <v>45484</v>
       </c>
       <c r="B11" t="n">
         <v>2.282</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45572</v>
+        <v>45483</v>
       </c>
       <c r="B12" t="n">
         <v>2.345</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45542</v>
+        <v>45482</v>
       </c>
       <c r="B13" t="n">
         <v>2.36</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45511</v>
+        <v>45481</v>
       </c>
       <c r="B14" t="n">
         <v>2.382</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45419</v>
+        <v>45478</v>
       </c>
       <c r="B15" t="n">
         <v>2.35</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45389</v>
+        <v>45477</v>
       </c>
       <c r="B16" t="n">
         <v>2.371</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45358</v>
+        <v>45476</v>
       </c>
       <c r="B17" t="n">
         <v>2.447</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45329</v>
+        <v>45475</v>
       </c>
       <c r="B18" t="n">
         <v>2.454</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45298</v>
+        <v>45474</v>
       </c>
       <c r="B19" t="n">
         <v>2.492</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45632</v>
+        <v>45455</v>
       </c>
       <c r="B32" t="n">
         <v>3.122</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45602</v>
+        <v>45454</v>
       </c>
       <c r="B33" t="n">
         <v>3.193</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45571</v>
+        <v>45453</v>
       </c>
       <c r="B34" t="n">
         <v>2.977</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45479</v>
+        <v>45450</v>
       </c>
       <c r="B35" t="n">
         <v>2.996</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45418</v>
+        <v>45448</v>
       </c>
       <c r="B37" t="n">
         <v>2.828</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45388</v>
+        <v>45447</v>
       </c>
       <c r="B38" t="n">
         <v>2.67</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45357</v>
+        <v>45446</v>
       </c>
       <c r="B39" t="n">
         <v>2.804</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45570</v>
+        <v>45422</v>
       </c>
       <c r="B56" t="n">
         <v>2.252</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45540</v>
+        <v>45421</v>
       </c>
       <c r="B57" t="n">
         <v>2.301</v>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45509</v>
+        <v>45420</v>
       </c>
       <c r="B58" t="n">
         <v>2.187</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45478</v>
+        <v>45419</v>
       </c>
       <c r="B59" t="n">
         <v>2.207</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45448</v>
+        <v>45418</v>
       </c>
       <c r="B60" t="n">
         <v>2.195</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45356</v>
+        <v>45415</v>
       </c>
       <c r="B61" t="n">
         <v>2.142</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45327</v>
+        <v>45414</v>
       </c>
       <c r="B62" t="n">
         <v>2.035</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45296</v>
+        <v>45413</v>
       </c>
       <c r="B63" t="n">
         <v>1.932</v>

--- a/VARIABLES/gasNatural_filtrat.xlsx
+++ b/VARIABLES/gasNatural_filtrat.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,2192 +476,1750 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45497</v>
+        <v>45515</v>
       </c>
       <c r="B2" t="n">
-        <v>2.191</v>
+        <v>2.188</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2,186</t>
+          <t>2,189</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2,196</t>
+          <t>2,255</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2,170</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>2,154</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>181,25K</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1,48%</t>
+          <t>2,10%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45496</v>
+        <v>45508</v>
       </c>
       <c r="B3" t="n">
-        <v>2.224</v>
+        <v>2.143</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2,279</t>
+          <t>1,950</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2,290</t>
+          <t>2,187</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2,160</t>
+          <t>1,882</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>127,42K</t>
+          <t>947,48K</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-2,71%</t>
+          <t>8,95%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45495</v>
+        <v>45501</v>
       </c>
       <c r="B4" t="n">
-        <v>2.286</v>
+        <v>1.967</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2,145</t>
+          <t>2,016</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2,302</t>
+          <t>2,149</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2,131</t>
+          <t>1,856</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>141,07K</t>
+          <t>709,02K</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>-1,94%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45492</v>
+        <v>45494</v>
       </c>
       <c r="B5" t="n">
-        <v>2.165</v>
+        <v>2.006</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2,128</t>
+          <t>2,104</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2,179</t>
+          <t>2,270</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2,095</t>
+          <t>1,994</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>101,00K</t>
+          <t>429,46K</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0,14%</t>
+          <t>-5,73%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45491</v>
+        <v>45487</v>
       </c>
       <c r="B6" t="n">
-        <v>2.168</v>
+        <v>2.128</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2,088</t>
+          <t>2,273</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2,172</t>
+          <t>2,285</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2,063</t>
+          <t>2,015</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>147,92K</t>
+          <t>794,39K</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>-8,63%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45490</v>
+        <v>45480</v>
       </c>
       <c r="B7" t="n">
-        <v>2.071</v>
+        <v>2.329</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2,203</t>
+          <t>2,270</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2,224</t>
+          <t>2,448</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2,055</t>
+          <t>2,249</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>187,04K</t>
+          <t>715,94K</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-6,12%</t>
+          <t>-0,89%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45489</v>
+        <v>45473</v>
       </c>
       <c r="B8" t="n">
-        <v>2.206</v>
+        <v>2.35</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2,189</t>
+          <t>2,581</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2,235</t>
+          <t>2,599</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2,171</t>
+          <t>2,347</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>121,32K</t>
+          <t>372,57K</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>-9,65%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45488</v>
+        <v>45466</v>
       </c>
       <c r="B9" t="n">
-        <v>2.178</v>
+        <v>2.601</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2,283</t>
+          <t>2,670</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2,284</t>
+          <t>2,844</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2,167</t>
+          <t>2,594</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>162,46K</t>
+          <t>416,53K</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-6,56%</t>
+          <t>-3,84%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45485</v>
+        <v>45459</v>
       </c>
       <c r="B10" t="n">
-        <v>2.331</v>
+        <v>2.705</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2,287</t>
+          <t>2,846</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2,357</t>
+          <t>2,948</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2,252</t>
+          <t>2,672</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>101,06K</t>
+          <t>565,71K</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>-6,11%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45484</v>
+        <v>45452</v>
       </c>
       <c r="B11" t="n">
-        <v>2.282</v>
+        <v>2.881</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2,339</t>
+          <t>2,980</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2,353</t>
+          <t>3,159</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2,277</t>
+          <t>2,862</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>100,06K</t>
+          <t>1,09M</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-2,69%</t>
+          <t>-1,27%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45483</v>
+        <v>45445</v>
       </c>
       <c r="B12" t="n">
-        <v>2.345</v>
+        <v>2.918</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2,366</t>
+          <t>2,645</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2,396</t>
+          <t>2,967</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2,313</t>
+          <t>2,573</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>107,30K</t>
+          <t>1,06M</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-0,64%</t>
+          <t>12,79%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45482</v>
+        <v>45438</v>
       </c>
       <c r="B13" t="n">
-        <v>2.36</v>
+        <v>2.587</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2,384</t>
+          <t>2,503</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2,454</t>
+          <t>2,682</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2,351</t>
+          <t>2,417</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>106,05K</t>
+          <t>387,87K</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-0,92%</t>
+          <t>2,66%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45481</v>
+        <v>45431</v>
       </c>
       <c r="B14" t="n">
-        <v>2.382</v>
+        <v>2.52</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2,300</t>
+          <t>2,659</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2,417</t>
+          <t>2,924</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2,300</t>
+          <t>2,493</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>126,72K</t>
+          <t>738,74K</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>-4,04%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45478</v>
+        <v>45424</v>
       </c>
       <c r="B15" t="n">
-        <v>2.35</v>
+        <v>2.626</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2,459</t>
+          <t>2,250</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2,466</t>
+          <t>2,654</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2,347</t>
+          <t>2,214</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>98,43K</t>
+          <t>908,42K</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-0,89%</t>
+          <t>16,61%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45477</v>
+        <v>45417</v>
       </c>
       <c r="B16" t="n">
-        <v>2.371</v>
+        <v>2.252</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2,431</t>
+          <t>2,170</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2,439</t>
+          <t>2,344</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2,335</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+          <t>2,133</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>846,39K</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-3,11%</t>
+          <t>5,14%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45476</v>
+        <v>45410</v>
       </c>
       <c r="B17" t="n">
-        <v>2.447</v>
+        <v>2.142</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2,485</t>
+          <t>1,923</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2,503</t>
+          <t>2,160</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2,434</t>
+          <t>1,913</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>70,97K</t>
+          <t>808,34K</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-0,29%</t>
+          <t>32,71%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45475</v>
+        <v>45403</v>
       </c>
       <c r="B18" t="n">
-        <v>2.454</v>
+        <v>1.614</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2,482</t>
+          <t>1,765</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2,497</t>
+          <t>1,848</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2,436</t>
+          <t>1,482</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>96,17K</t>
+          <t>317,15K</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-1,52%</t>
+          <t>-7,88%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45474</v>
+        <v>45396</v>
       </c>
       <c r="B19" t="n">
-        <v>2.492</v>
+        <v>1.752</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2,581</t>
+          <t>1,772</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2,599</t>
+          <t>1,806</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2,474</t>
+          <t>1,649</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>107,00K</t>
+          <t>869,31K</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-4,08%</t>
+          <t>-1,02%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45471</v>
+        <v>45389</v>
       </c>
       <c r="B20" t="n">
-        <v>2.598</v>
+        <v>1.77</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2,694</t>
+          <t>1,770</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2,749</t>
+          <t>1,943</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2,591</t>
+          <t>1,731</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>80,15K</t>
+          <t>999,32K</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-2,88%</t>
+          <t>-11,94%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45470</v>
+        <v>45382</v>
       </c>
       <c r="B21" t="n">
-        <v>2.675</v>
+        <v>2.01</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2,725</t>
+          <t>1,999</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2,773</t>
+          <t>2,136</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2,665</t>
+          <t>1,958</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>61,99K</t>
+          <t>360,18K</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-2,55%</t>
+          <t>14,01%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45469</v>
+        <v>45375</v>
       </c>
       <c r="B22" t="n">
-        <v>2.745</v>
+        <v>1.763</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2,850</t>
+          <t>1,664</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2,863</t>
+          <t>1,789</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2,731</t>
+          <t>1,481</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>141,35K</t>
+          <t>388,78K</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-4,12%</t>
+          <t>6,27%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45468</v>
+        <v>45368</v>
       </c>
       <c r="B23" t="n">
-        <v>2.863</v>
+        <v>1.659</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2,943</t>
+          <t>1,689</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2,951</t>
+          <t>1,769</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2,831</t>
+          <t>1,647</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>158,42K</t>
+          <t>502,70K</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-2,88%</t>
+          <t>0,24%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45467</v>
+        <v>45361</v>
       </c>
       <c r="B24" t="n">
-        <v>2.948</v>
+        <v>1.655</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2,813</t>
+          <t>1,805</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2,953</t>
+          <t>1,841</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2,780</t>
+          <t>1,643</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>139,60K</t>
+          <t>859,05K</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>-8,31%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45464</v>
+        <v>45354</v>
       </c>
       <c r="B25" t="n">
-        <v>2.705</v>
+        <v>1.805</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2,725</t>
+          <t>1,873</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2,770</t>
+          <t>2,009</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2,672</t>
+          <t>1,755</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>79,37K</t>
+          <t>752,20K</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-1,31%</t>
+          <t>-1,63%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45463</v>
+        <v>45347</v>
       </c>
       <c r="B26" t="n">
-        <v>2.741</v>
+        <v>1.835</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2,903</t>
+          <t>1,660</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2,948</t>
+          <t>1,918</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2,723</t>
+          <t>1,511</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>186,69K</t>
+          <t>510,75K</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-6,00%</t>
+          <t>14,47%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45462</v>
+        <v>45340</v>
       </c>
       <c r="B27" t="n">
-        <v>2.916</v>
+        <v>1.603</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2,904</t>
+          <t>1,533</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2,928</t>
+          <t>1,792</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2,859</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
+          <t>1,522</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>507,52K</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>-0,37%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45461</v>
+        <v>45333</v>
       </c>
       <c r="B28" t="n">
-        <v>2.909</v>
+        <v>1.609</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2,772</t>
+          <t>1,805</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2,916</t>
+          <t>1,863</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2,772</t>
+          <t>1,573</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>147,41K</t>
+          <t>1,09M</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>-12,89%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45460</v>
+        <v>45326</v>
       </c>
       <c r="B29" t="n">
-        <v>2.788</v>
+        <v>1.847</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2,846</t>
+          <t>2,110</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2,848</t>
+          <t>2,127</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2,759</t>
+          <t>1,817</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>152,24K</t>
+          <t>962,26K</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-5,91%</t>
+          <t>-11,16%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45457</v>
+        <v>45319</v>
       </c>
       <c r="B30" t="n">
-        <v>2.963</v>
+        <v>2.079</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>2,680</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3,068</t>
+          <t>2,760</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2,950</t>
+          <t>2,021</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>80,26K</t>
+          <t>447,53K</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-2,44%</t>
+          <t>-23,34%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45456</v>
+        <v>45312</v>
       </c>
       <c r="B31" t="n">
-        <v>3.037</v>
+        <v>2.712</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3,104</t>
+          <t>2,380</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3,167</t>
+          <t>2,884</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2,978</t>
+          <t>2,311</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>94,27K</t>
+          <t>301,22K</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-2,72%</t>
+          <t>7,66%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45455</v>
+        <v>45305</v>
       </c>
       <c r="B32" t="n">
-        <v>3.122</v>
+        <v>2.519</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3,194</t>
+          <t>3,113</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3,194</t>
+          <t>3,189</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3,073</t>
+          <t>2,514</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>101,31K</t>
+          <t>530,31K</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-2,22%</t>
+          <t>-23,97%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45454</v>
+        <v>45298</v>
       </c>
       <c r="B33" t="n">
-        <v>3.193</v>
+        <v>3.313</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>3,046</t>
+          <t>2,950</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3,221</t>
+          <t>3,392</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3,031</t>
+          <t>2,694</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>85,32K</t>
+          <t>1,08M</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>14,52%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45453</v>
+        <v>45291</v>
       </c>
       <c r="B34" t="n">
-        <v>2.977</v>
+        <v>2.893</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>3,055</t>
+          <t>2,605</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3,163</t>
+          <t>2,906</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2,945</t>
+          <t>2,524</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>106,18K</t>
+          <t>505,24K</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-0,63%</t>
+          <t>15,08%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45450</v>
+        <v>45284</v>
       </c>
       <c r="B35" t="n">
-        <v>2.996</v>
+        <v>2.514</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2,883</t>
+          <t>2,545</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3,037</t>
+          <t>2,722</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2,871</t>
+          <t>2,412</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>93,24K</t>
+          <t>170,75K</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>3,60%</t>
+          <t>-3,68%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45449</v>
+        <v>45277</v>
       </c>
       <c r="B36" t="n">
-        <v>2.892</v>
+        <v>2.61</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2,829</t>
+          <t>2,503</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2,946</t>
+          <t>2,620</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2,796</t>
+          <t>2,385</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>73,60K</t>
+          <t>534,54K</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>4,78%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45448</v>
+        <v>45270</v>
       </c>
       <c r="B37" t="n">
-        <v>2.828</v>
+        <v>2.491</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2,694</t>
+          <t>2,490</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2,854</t>
+          <t>2,544</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2,681</t>
+          <t>2,235</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>76,26K</t>
+          <t>968,43K</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>-3,49%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45447</v>
+        <v>45263</v>
       </c>
       <c r="B38" t="n">
-        <v>2.67</v>
+        <v>2.581</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2,814</t>
+          <t>2,728</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2,874</t>
+          <t>2,786</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2,656</t>
+          <t>2,489</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>87,22K</t>
+          <t>748,53K</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-4,78%</t>
+          <t>-8,28%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45446</v>
+        <v>45256</v>
       </c>
       <c r="B39" t="n">
-        <v>2.804</v>
+        <v>2.814</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2,716</t>
+          <t>2,778</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2,850</t>
+          <t>2,870</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2,688</t>
+          <t>2,669</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>99,26K</t>
+          <t>360,52K</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>-1,44%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45443</v>
+        <v>45249</v>
       </c>
       <c r="B40" t="n">
-        <v>2.587</v>
+        <v>2.855</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2,570</t>
+          <t>2,957</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2,624</t>
+          <t>2,958</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2,518</t>
+          <t>2,798</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>139,12K</t>
+          <t>310,72K</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>-3,55%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45442</v>
+        <v>45242</v>
       </c>
       <c r="B41" t="n">
-        <v>2.572</v>
+        <v>2.96</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2,662</t>
+          <t>3,064</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2,682</t>
+          <t>3,275</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2,562</t>
+          <t>2,893</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>160,06K</t>
+          <t>805,56K</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>-2,41%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45441</v>
+        <v>45235</v>
       </c>
       <c r="B42" t="n">
-        <v>2.493</v>
+        <v>3.033</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2,594</t>
+          <t>3,373</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2,669</t>
+          <t>3,407</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2,417</t>
+          <t>2,989</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2,66K</t>
+          <t>687,25K</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-3,75%</t>
+          <t>-13,71%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45440</v>
+        <v>45228</v>
       </c>
       <c r="B43" t="n">
-        <v>2.59</v>
+        <v>3.515</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2,503</t>
+          <t>3,400</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2,621</t>
+          <t>3,630</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2,475</t>
+          <t>3,318</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>86,03K</t>
+          <t>627,63K</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-6,83%</t>
+          <t>11,09%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45439</v>
+        <v>45221</v>
       </c>
       <c r="B44" t="n">
-        <v>2.78</v>
+        <v>3.164</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2,747</t>
+          <t>2,905</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2,853</t>
+          <t>3,401</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2,742</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
+          <t>2,861</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>284,63K</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>9,14%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45438</v>
+        <v>45214</v>
       </c>
       <c r="B45" t="n">
-        <v>2.748</v>
+        <v>2.899</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2,747</t>
+          <t>3,185</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2,760</t>
+          <t>3,185</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2,732</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
+          <t>2,880</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>560,11K</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>-10,41%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45436</v>
+        <v>45207</v>
       </c>
       <c r="B46" t="n">
-        <v>2.52</v>
+        <v>3.236</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2,676</t>
+          <t>3,350</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2,709</t>
+          <t>3,471</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2,493</t>
+          <t>3,203</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>51,81K</t>
+          <t>750,13K</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-5,16%</t>
+          <t>-3,06%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45435</v>
+        <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>2.657</v>
+        <v>3.338</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2,799</t>
+          <t>2,958</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2,924</t>
+          <t>3,364</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2,640</t>
+          <t>2,820</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>116,69K</t>
+          <t>628,89K</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-6,51%</t>
+          <t>13,96%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45434</v>
+        <v>45193</v>
       </c>
       <c r="B48" t="n">
-        <v>2.842</v>
+        <v>2.929</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2,665</t>
+          <t>2,657</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2,851</t>
+          <t>2,997</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2,609</t>
+          <t>2,552</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>184,82K</t>
+          <t>218,82K</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>6,40%</t>
+          <t>11,07%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45433</v>
+        <v>45186</v>
       </c>
       <c r="B49" t="n">
-        <v>2.671</v>
+        <v>2.637</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2,733</t>
+          <t>2,624</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2,798</t>
+          <t>2,872</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2,640</t>
+          <t>2,595</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>174,16K</t>
+          <t>533,39K</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-2,91%</t>
+          <t>-0,26%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45432</v>
+        <v>45179</v>
       </c>
       <c r="B50" t="n">
-        <v>2.751</v>
+        <v>2.644</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2,659</t>
+          <t>2,610</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2,756</t>
+          <t>2,823</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2,625</t>
+          <t>2,541</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>211,26K</t>
+          <t>658,86K</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>1,50%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45429</v>
+        <v>45172</v>
       </c>
       <c r="B51" t="n">
-        <v>2.626</v>
+        <v>2.605</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2,487</t>
+          <t>2,700</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2,654</t>
+          <t>2,708</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2,485</t>
+          <t>2,500</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>185,80K</t>
+          <t>435,33K</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>-5,79%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45428</v>
+        <v>45165</v>
       </c>
       <c r="B52" t="n">
-        <v>2.495</v>
+        <v>2.765</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2,405</t>
+          <t>2,635</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2,575</t>
+          <t>2,865</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2,389</t>
+          <t>2,515</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>229,62K</t>
+          <t>383,46K</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>8,86%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45427</v>
+        <v>45158</v>
       </c>
       <c r="B53" t="n">
-        <v>2.416</v>
+        <v>2.54</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2,343</t>
+          <t>2,560</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2,424</t>
+          <t>2,660</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2,313</t>
+          <t>2,425</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>180,74K</t>
+          <t>384,52K</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>-0,43%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45426</v>
+        <v>45151</v>
       </c>
       <c r="B54" t="n">
-        <v>2.344</v>
+        <v>2.551</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2,362</t>
+          <t>2,776</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2,397</t>
+          <t>2,863</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2,306</t>
+          <t>2,524</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>147,57K</t>
+          <t>514,45K</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>-1,55%</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>45425</v>
-      </c>
-      <c r="B55" t="n">
-        <v>2.381</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2,250</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2,384</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>2,214</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>164,69K</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>5,73%</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>45422</v>
-      </c>
-      <c r="B56" t="n">
-        <v>2.252</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>2,307</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>2,344</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>2,242</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>142,99K</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>-2,13%</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>45421</v>
-      </c>
-      <c r="B57" t="n">
-        <v>2.301</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>2,186</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>2,316</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>2,153</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>207,68K</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>5,21%</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>45420</v>
-      </c>
-      <c r="B58" t="n">
-        <v>2.187</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>2,219</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>2,274</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>2,167</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>149,91K</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>-0,91%</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>45419</v>
-      </c>
-      <c r="B59" t="n">
-        <v>2.207</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>2,206</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>2,230</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>2,142</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>149,43K</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0,55%</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>45418</v>
-      </c>
-      <c r="B60" t="n">
-        <v>2.195</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>2,170</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>2,262</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>2,133</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>196,38K</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>2,47%</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>45415</v>
-      </c>
-      <c r="B61" t="n">
-        <v>2.142</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>2,031</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>2,160</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>2,012</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>209,46K</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>5,26%</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>45414</v>
-      </c>
-      <c r="B62" t="n">
-        <v>2.035</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>1,931</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>2,050</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>1,927</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>153,74K</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>5,33%</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>45413</v>
-      </c>
-      <c r="B63" t="n">
-        <v>1.932</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>1,954</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>1,970</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>1,913</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>135,92K</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>-2,96%</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>45412</v>
-      </c>
-      <c r="B64" t="n">
-        <v>1.991</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>2,050</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>2,092</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>1,951</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>150,37K</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>-1,92%</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="B65" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>1,923</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>2,056</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>1,916</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>158,86K</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>25,77%</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>45408</v>
-      </c>
-      <c r="B66" t="n">
-        <v>1.614</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>1,622</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>1,628</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>1,482</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>4,93K</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>-1,47%</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>45407</v>
-      </c>
-      <c r="B67" t="n">
-        <v>1.638</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>1,644</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>1,675</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>1,583</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>75,48K</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>-0,91%</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>45406</v>
-      </c>
-      <c r="B68" t="n">
-        <v>1.653</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>1,836</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>1,840</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>1,634</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>58,15K</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>-8,77%</t>
+          <t>-7,91%</t>
         </is>
       </c>
     </row>

--- a/VARIABLES/gasNatural_filtrat.xlsx
+++ b/VARIABLES/gasNatural_filtrat.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,1750 +476,8614 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45515</v>
+        <v>45522</v>
       </c>
       <c r="B2" t="n">
-        <v>2.188</v>
+        <v>2.178</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2,189</t>
+          <t>2,123</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2,255</t>
+          <t>2,277</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2,154</t>
+          <t>2,099</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>181,25K</t>
+          <t>433,69K</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2,10%</t>
+          <t>2,59%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45508</v>
+        <v>45515</v>
       </c>
       <c r="B3" t="n">
-        <v>2.143</v>
+        <v>2.123</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1,950</t>
+          <t>2,173</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2,187</t>
+          <t>2,301</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1,882</t>
+          <t>2,111</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>947,48K</t>
+          <t>879,52K</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>-0,93%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45501</v>
+        <v>45508</v>
       </c>
       <c r="B4" t="n">
-        <v>1.967</v>
+        <v>2.143</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2,016</t>
+          <t>1,950</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2,149</t>
+          <t>2,187</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1,856</t>
+          <t>1,882</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>709,02K</t>
+          <t>947,48K</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-1,94%</t>
+          <t>8,95%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45494</v>
+        <v>45501</v>
       </c>
       <c r="B5" t="n">
-        <v>2.006</v>
+        <v>1.967</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2,104</t>
+          <t>2,016</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2,270</t>
+          <t>2,149</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1,994</t>
+          <t>1,856</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>429,46K</t>
+          <t>709,02K</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-5,73%</t>
+          <t>-1,94%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45487</v>
+        <v>45494</v>
       </c>
       <c r="B6" t="n">
-        <v>2.128</v>
+        <v>2.006</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2,273</t>
+          <t>2,104</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2,285</t>
+          <t>2,270</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2,015</t>
+          <t>1,994</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>794,39K</t>
+          <t>429,46K</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-8,63%</t>
+          <t>-5,73%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45480</v>
+        <v>45487</v>
       </c>
       <c r="B7" t="n">
-        <v>2.329</v>
+        <v>2.128</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2,270</t>
+          <t>2,273</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2,448</t>
+          <t>2,285</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2,249</t>
+          <t>2,015</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>715,94K</t>
+          <t>794,39K</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0,89%</t>
+          <t>-8,63%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45473</v>
+        <v>45480</v>
       </c>
       <c r="B8" t="n">
-        <v>2.35</v>
+        <v>2.329</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2,581</t>
+          <t>2,270</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2,599</t>
+          <t>2,448</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2,347</t>
+          <t>2,249</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>372,57K</t>
+          <t>715,94K</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-9,65%</t>
+          <t>-0,89%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45466</v>
+        <v>45473</v>
       </c>
       <c r="B9" t="n">
-        <v>2.601</v>
+        <v>2.35</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2,670</t>
+          <t>2,581</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2,844</t>
+          <t>2,599</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2,594</t>
+          <t>2,347</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>416,53K</t>
+          <t>372,57K</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-3,84%</t>
+          <t>-9,65%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45459</v>
+        <v>45466</v>
       </c>
       <c r="B10" t="n">
-        <v>2.705</v>
+        <v>2.601</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2,846</t>
+          <t>2,670</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2,948</t>
+          <t>2,844</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2,672</t>
+          <t>2,594</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>565,71K</t>
+          <t>416,53K</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-6,11%</t>
+          <t>-3,84%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45452</v>
+        <v>45459</v>
       </c>
       <c r="B11" t="n">
-        <v>2.881</v>
+        <v>2.705</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2,980</t>
+          <t>2,846</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3,159</t>
+          <t>2,948</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2,862</t>
+          <t>2,672</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1,09M</t>
+          <t>565,71K</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-1,27%</t>
+          <t>-6,11%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45445</v>
+        <v>45452</v>
       </c>
       <c r="B12" t="n">
-        <v>2.918</v>
+        <v>2.881</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2,645</t>
+          <t>2,980</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2,967</t>
+          <t>3,159</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2,573</t>
+          <t>2,862</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1,06M</t>
+          <t>1,09M</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>-1,27%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45438</v>
+        <v>45445</v>
       </c>
       <c r="B13" t="n">
-        <v>2.587</v>
+        <v>2.918</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2,503</t>
+          <t>2,645</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2,682</t>
+          <t>2,967</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2,417</t>
+          <t>2,573</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>387,87K</t>
+          <t>1,06M</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>12,79%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45431</v>
+        <v>45438</v>
       </c>
       <c r="B14" t="n">
-        <v>2.52</v>
+        <v>2.587</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2,659</t>
+          <t>2,503</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2,924</t>
+          <t>2,682</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2,493</t>
+          <t>2,417</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>738,74K</t>
+          <t>387,87K</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-4,04%</t>
+          <t>2,66%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45424</v>
+        <v>45431</v>
       </c>
       <c r="B15" t="n">
-        <v>2.626</v>
+        <v>2.52</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2,250</t>
+          <t>2,659</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2,654</t>
+          <t>2,924</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2,214</t>
+          <t>2,493</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>908,42K</t>
+          <t>738,74K</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>-4,04%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45417</v>
+        <v>45424</v>
       </c>
       <c r="B16" t="n">
-        <v>2.252</v>
+        <v>2.626</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2,170</t>
+          <t>2,250</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2,344</t>
+          <t>2,654</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2,133</t>
+          <t>2,214</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>846,39K</t>
+          <t>908,42K</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>16,61%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45410</v>
+        <v>45417</v>
       </c>
       <c r="B17" t="n">
-        <v>2.142</v>
+        <v>2.252</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1,923</t>
+          <t>2,170</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2,160</t>
+          <t>2,344</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1,913</t>
+          <t>2,133</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>808,34K</t>
+          <t>846,39K</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>32,71%</t>
+          <t>5,14%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45403</v>
+        <v>45410</v>
       </c>
       <c r="B18" t="n">
-        <v>1.614</v>
+        <v>2.142</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1,765</t>
+          <t>1,923</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1,848</t>
+          <t>2,160</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1,482</t>
+          <t>1,913</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>317,15K</t>
+          <t>808,34K</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-7,88%</t>
+          <t>32,71%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45396</v>
+        <v>45403</v>
       </c>
       <c r="B19" t="n">
-        <v>1.752</v>
+        <v>1.614</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1,772</t>
+          <t>1,765</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1,806</t>
+          <t>1,848</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1,649</t>
+          <t>1,482</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>869,31K</t>
+          <t>317,15K</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-1,02%</t>
+          <t>-7,88%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45389</v>
+        <v>45396</v>
       </c>
       <c r="B20" t="n">
-        <v>1.77</v>
+        <v>1.752</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1,770</t>
+          <t>1,772</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1,943</t>
+          <t>1,806</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1,731</t>
+          <t>1,649</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>999,32K</t>
+          <t>869,31K</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-11,94%</t>
+          <t>-1,02%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45382</v>
+        <v>45389</v>
       </c>
       <c r="B21" t="n">
-        <v>2.01</v>
+        <v>1.77</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1,999</t>
+          <t>1,770</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2,136</t>
+          <t>1,943</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1,958</t>
+          <t>1,731</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>360,18K</t>
+          <t>999,32K</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>-11,94%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45375</v>
+        <v>45382</v>
       </c>
       <c r="B22" t="n">
-        <v>1.763</v>
+        <v>2.01</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1,664</t>
+          <t>1,999</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1,789</t>
+          <t>2,136</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1,481</t>
+          <t>1,958</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>388,78K</t>
+          <t>360,18K</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>14,01%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45368</v>
+        <v>45375</v>
       </c>
       <c r="B23" t="n">
-        <v>1.659</v>
+        <v>1.763</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1,689</t>
+          <t>1,664</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1,769</t>
+          <t>1,789</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1,647</t>
+          <t>1,481</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>502,70K</t>
+          <t>388,78K</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>6,27%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45361</v>
+        <v>45368</v>
       </c>
       <c r="B24" t="n">
-        <v>1.655</v>
+        <v>1.659</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1,805</t>
+          <t>1,689</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1,841</t>
+          <t>1,769</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1,643</t>
+          <t>1,647</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>859,05K</t>
+          <t>502,70K</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-8,31%</t>
+          <t>0,24%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45354</v>
+        <v>45361</v>
       </c>
       <c r="B25" t="n">
-        <v>1.805</v>
+        <v>1.655</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1,873</t>
+          <t>1,805</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2,009</t>
+          <t>1,841</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1,755</t>
+          <t>1,643</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>752,20K</t>
+          <t>859,05K</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-1,63%</t>
+          <t>-8,31%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45347</v>
+        <v>45354</v>
       </c>
       <c r="B26" t="n">
-        <v>1.835</v>
+        <v>1.805</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1,660</t>
+          <t>1,873</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1,918</t>
+          <t>2,009</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1,511</t>
+          <t>1,755</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>510,75K</t>
+          <t>752,20K</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>-1,63%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45340</v>
+        <v>45347</v>
       </c>
       <c r="B27" t="n">
-        <v>1.603</v>
+        <v>1.835</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1,533</t>
+          <t>1,660</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1,792</t>
+          <t>1,918</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1,522</t>
+          <t>1,511</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>507,52K</t>
+          <t>510,75K</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-0,37%</t>
+          <t>14,47%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45333</v>
+        <v>45340</v>
       </c>
       <c r="B28" t="n">
-        <v>1.609</v>
+        <v>1.603</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1,805</t>
+          <t>1,533</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1,863</t>
+          <t>1,792</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1,573</t>
+          <t>1,522</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1,09M</t>
+          <t>507,52K</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-12,89%</t>
+          <t>-0,37%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45326</v>
+        <v>45333</v>
       </c>
       <c r="B29" t="n">
-        <v>1.847</v>
+        <v>1.609</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2,110</t>
+          <t>1,805</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2,127</t>
+          <t>1,863</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1,817</t>
+          <t>1,573</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>962,26K</t>
+          <t>1,09M</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-11,16%</t>
+          <t>-12,89%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45319</v>
+        <v>45326</v>
       </c>
       <c r="B30" t="n">
-        <v>2.079</v>
+        <v>1.847</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2,680</t>
+          <t>2,110</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2,760</t>
+          <t>2,127</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2,021</t>
+          <t>1,817</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>447,53K</t>
+          <t>962,26K</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-23,34%</t>
+          <t>-11,16%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45312</v>
+        <v>45319</v>
       </c>
       <c r="B31" t="n">
-        <v>2.712</v>
+        <v>2.079</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2,380</t>
+          <t>2,680</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2,884</t>
+          <t>2,760</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2,311</t>
+          <t>2,021</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>301,22K</t>
+          <t>447,53K</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>-23,34%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45305</v>
+        <v>45312</v>
       </c>
       <c r="B32" t="n">
-        <v>2.519</v>
+        <v>2.712</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3,113</t>
+          <t>2,380</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3,189</t>
+          <t>2,884</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2,514</t>
+          <t>2,311</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>530,31K</t>
+          <t>301,22K</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-23,97%</t>
+          <t>7,66%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45298</v>
+        <v>45305</v>
       </c>
       <c r="B33" t="n">
-        <v>3.313</v>
+        <v>2.519</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2,950</t>
+          <t>3,113</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3,392</t>
+          <t>3,189</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2,694</t>
+          <t>2,514</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1,08M</t>
+          <t>530,31K</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>-23,97%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45291</v>
+        <v>45298</v>
       </c>
       <c r="B34" t="n">
-        <v>2.893</v>
+        <v>3.313</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2,605</t>
+          <t>2,950</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2,906</t>
+          <t>3,392</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2,524</t>
+          <t>2,694</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>505,24K</t>
+          <t>1,08M</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>14,52%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45284</v>
+        <v>45291</v>
       </c>
       <c r="B35" t="n">
-        <v>2.514</v>
+        <v>2.893</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2,545</t>
+          <t>2,605</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2,722</t>
+          <t>2,906</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2,412</t>
+          <t>2,524</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>170,75K</t>
+          <t>505,24K</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-3,68%</t>
+          <t>15,08%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45277</v>
+        <v>45284</v>
       </c>
       <c r="B36" t="n">
-        <v>2.61</v>
+        <v>2.514</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2,503</t>
+          <t>2,545</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2,620</t>
+          <t>2,722</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2,385</t>
+          <t>2,412</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>534,54K</t>
+          <t>170,75K</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>-3,68%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="B37" t="n">
-        <v>2.491</v>
+        <v>2.61</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2,490</t>
+          <t>2,503</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2,544</t>
+          <t>2,620</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2,235</t>
+          <t>2,385</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>968,43K</t>
+          <t>534,54K</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-3,49%</t>
+          <t>4,78%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="B38" t="n">
-        <v>2.581</v>
+        <v>2.491</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2,728</t>
+          <t>2,490</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2,786</t>
+          <t>2,544</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2,489</t>
+          <t>2,235</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>748,53K</t>
+          <t>968,43K</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-8,28%</t>
+          <t>-3,49%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="B39" t="n">
-        <v>2.814</v>
+        <v>2.581</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2,778</t>
+          <t>2,728</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2,870</t>
+          <t>2,786</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2,669</t>
+          <t>2,489</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>360,52K</t>
+          <t>748,53K</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-1,44%</t>
+          <t>-8,28%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45249</v>
+        <v>45256</v>
       </c>
       <c r="B40" t="n">
-        <v>2.855</v>
+        <v>2.814</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2,957</t>
+          <t>2,778</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2,958</t>
+          <t>2,870</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2,798</t>
+          <t>2,669</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>310,72K</t>
+          <t>360,52K</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-3,55%</t>
+          <t>-1,44%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45242</v>
+        <v>45249</v>
       </c>
       <c r="B41" t="n">
-        <v>2.96</v>
+        <v>2.855</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3,064</t>
+          <t>2,957</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3,275</t>
+          <t>2,958</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2,893</t>
+          <t>2,798</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>805,56K</t>
+          <t>310,72K</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-2,41%</t>
+          <t>-3,55%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="B42" t="n">
-        <v>3.033</v>
+        <v>2.96</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3,373</t>
+          <t>3,064</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3,407</t>
+          <t>3,275</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2,989</t>
+          <t>2,893</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>687,25K</t>
+          <t>805,56K</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-13,71%</t>
+          <t>-2,41%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="B43" t="n">
-        <v>3.515</v>
+        <v>3.033</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3,400</t>
+          <t>3,373</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3,630</t>
+          <t>3,407</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3,318</t>
+          <t>2,989</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>627,63K</t>
+          <t>687,25K</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>-13,71%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45221</v>
+        <v>45228</v>
       </c>
       <c r="B44" t="n">
-        <v>3.164</v>
+        <v>3.515</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2,905</t>
+          <t>3,400</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3,401</t>
+          <t>3,630</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2,861</t>
+          <t>3,318</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>284,63K</t>
+          <t>627,63K</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>11,09%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45214</v>
+        <v>45221</v>
       </c>
       <c r="B45" t="n">
-        <v>2.899</v>
+        <v>3.164</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>3,185</t>
+          <t>2,905</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3,185</t>
+          <t>3,401</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2,880</t>
+          <t>2,861</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>560,11K</t>
+          <t>284,63K</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-10,41%</t>
+          <t>9,14%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45207</v>
+        <v>45214</v>
       </c>
       <c r="B46" t="n">
-        <v>3.236</v>
+        <v>2.899</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>3,350</t>
+          <t>3,185</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3,471</t>
+          <t>3,185</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3,203</t>
+          <t>2,880</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>750,13K</t>
+          <t>560,11K</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-3,06%</t>
+          <t>-10,41%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45200</v>
+        <v>45207</v>
       </c>
       <c r="B47" t="n">
-        <v>3.338</v>
+        <v>3.236</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2,958</t>
+          <t>3,350</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3,364</t>
+          <t>3,471</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2,820</t>
+          <t>3,203</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>628,89K</t>
+          <t>750,13K</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>-3,06%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45193</v>
+        <v>45200</v>
       </c>
       <c r="B48" t="n">
-        <v>2.929</v>
+        <v>3.338</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2,657</t>
+          <t>2,958</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2,997</t>
+          <t>3,364</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2,552</t>
+          <t>2,820</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>218,82K</t>
+          <t>628,89K</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>13,96%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="B49" t="n">
-        <v>2.637</v>
+        <v>2.929</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2,624</t>
+          <t>2,657</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2,872</t>
+          <t>2,997</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2,595</t>
+          <t>2,552</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>533,39K</t>
+          <t>218,82K</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-0,26%</t>
+          <t>11,07%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45179</v>
+        <v>45186</v>
       </c>
       <c r="B50" t="n">
-        <v>2.644</v>
+        <v>2.637</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2,610</t>
+          <t>2,624</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2,823</t>
+          <t>2,872</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2,541</t>
+          <t>2,595</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>658,86K</t>
+          <t>533,39K</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1,50%</t>
+          <t>-0,26%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45172</v>
+        <v>45179</v>
       </c>
       <c r="B51" t="n">
-        <v>2.605</v>
+        <v>2.644</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2,700</t>
+          <t>2,610</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2,708</t>
+          <t>2,823</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2,500</t>
+          <t>2,541</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>435,33K</t>
+          <t>658,86K</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>-5,79%</t>
+          <t>1,50%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45165</v>
+        <v>45172</v>
       </c>
       <c r="B52" t="n">
-        <v>2.765</v>
+        <v>2.605</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2,635</t>
+          <t>2,700</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2,865</t>
+          <t>2,708</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2,515</t>
+          <t>2,500</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>383,46K</t>
+          <t>435,33K</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>-5,79%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45158</v>
+        <v>45165</v>
       </c>
       <c r="B53" t="n">
-        <v>2.54</v>
+        <v>2.765</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2,560</t>
+          <t>2,635</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2,660</t>
+          <t>2,865</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2,425</t>
+          <t>2,515</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>384,52K</t>
+          <t>383,46K</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>-0,43%</t>
+          <t>8,86%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
+        <v>45158</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2,560</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2,660</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2,425</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>384,52K</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>-0,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>45151</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B55" t="n">
         <v>2.551</v>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>2,776</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>2,863</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2,524</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>514,45K</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>-7,91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45144</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2,579</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3,018</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2,571</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>958,47K</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>7,49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45137</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2.577</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2,659</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2,693</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2,457</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>520,16K</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-2,31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45130</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2.638</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2,721</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2,767</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2,463</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>129,44K</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>-2,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45123</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2.713</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2,548</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2,789</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2,484</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>607,85K</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>6,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45116</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2.539</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2,570</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2,750</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2,492</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>552,73K</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>-1,67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45109</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2.582</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2,729</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2,793</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2,536</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>313,83K</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>-7,72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45102</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2.798</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2,758</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2,839</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2,593</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>222,68K</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2.729</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2,629</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2,740</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2,448</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>432,79K</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>3,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45088</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2.632</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2,304</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2,653</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2,206</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>755,69K</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>16,77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2.254</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2,214</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2,380</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2,173</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>697,05K</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>3,78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45074</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2,417</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2,448</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2,136</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>545,99K</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>-0,41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45067</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2.181</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2,568</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2,569</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2,143</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>254,92K</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>-15,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45060</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2.585</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2,265</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2,685</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2,250</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>603,74K</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>14,08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45053</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2.266</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2,148</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2,335</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2,140</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>664,75K</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>6,04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45046</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2.137</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2,398</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2,410</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2,031</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>479,82K</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-11,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45039</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2,220</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2,529</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2,101</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>230,08K</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>7,93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45032</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2.233</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2,150</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2,385</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2,140</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>575,21K</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>5,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45025</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2.114</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2,019</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2,247</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1,946</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>949,17K</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>5,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45018</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2.011</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2,085</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2,197</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1,992</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>658,87K</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>-9,25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2.216</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2,130</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2,241</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1,944</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>259,63K</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0,00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45004</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2.216</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2,347</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2,427</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2,127</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>458,32K</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>-5,22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>44997</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2.338</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2,426</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2,674</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2,327</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>486,83K</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>-3,79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2,830</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2,830</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2,425</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>666,61K</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>-19,24%</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="B79" t="n">
+        <v>3.009</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2,650</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3,027</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2,554</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>876,16K</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>22,77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2.451</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2,225</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2,577</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1,967</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>223,45K</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>7,74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2.275</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2,580</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2,623</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2,220</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>710,17K</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>-9,51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2.514</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2,422</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2,657</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2,350</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>799,88K</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>4,32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>44955</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2,720</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2,780</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2,341</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>684,28K</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>-22,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>44948</v>
+      </c>
+      <c r="B84" t="n">
+        <v>3.109</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>3,450</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3,595</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2,761</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>281,38K</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>-2,05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B85" t="n">
+        <v>3.174</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>3,557</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3,789</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>3,091</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>362,83K</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>-7,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>44934</v>
+      </c>
+      <c r="B86" t="n">
+        <v>3.419</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>3,810</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4,128</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>3,384</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>499,45K</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>-7,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>4,393</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4,394</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>3,520</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>438,33K</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>-17,09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>44920</v>
+      </c>
+      <c r="B88" t="n">
+        <v>4.475</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>5,283</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>5,367</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>4,378</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>121,32K</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>-11,89%</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>44913</v>
+      </c>
+      <c r="B89" t="n">
+        <v>5.079</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>6,154</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>6,275</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>4,825</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>401,48K</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>-23,05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>44906</v>
+      </c>
+      <c r="B90" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>6,950</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>7,105</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>6,219</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>618,36K</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>44899</v>
+      </c>
+      <c r="B91" t="n">
+        <v>6.245</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>5,900</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>6,391</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>5,337</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>626,37K</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>-0,57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>44892</v>
+      </c>
+      <c r="B92" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>6,870</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>7,421</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>6,221</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>307,20K</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>-10,58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>44885</v>
+      </c>
+      <c r="B93" t="n">
+        <v>7.024</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>6,333</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>7,604</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>6,145</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>275,50K</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>11,44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>44878</v>
+      </c>
+      <c r="B94" t="n">
+        <v>6.303</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>6,119</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>6,547</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>5,727</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>407,52K</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>7,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>44871</v>
+      </c>
+      <c r="B95" t="n">
+        <v>5.879</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>6,980</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>7,221</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>5,715</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>554,09K</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>-8,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>44864</v>
+      </c>
+      <c r="B96" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>5,832</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>6,510</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>5,614</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>468,78K</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>12,60%</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>44857</v>
+      </c>
+      <c r="B97" t="n">
+        <v>5.684</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>4,970</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>5,890</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>4,750</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>148,13K</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>14,62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>44850</v>
+      </c>
+      <c r="B98" t="n">
+        <v>4.959</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>6,263</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>6,314</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>4,903</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>445,88K</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>-23,15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>44843</v>
+      </c>
+      <c r="B99" t="n">
+        <v>6.453</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>6,647</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>6,901</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>6,337</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>464,89K</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>-4,37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>44836</v>
+      </c>
+      <c r="B100" t="n">
+        <v>6.748</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>6,800</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>7,188</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>6,305</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>416,97K</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>-0,27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>44829</v>
+      </c>
+      <c r="B101" t="n">
+        <v>6.766</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>6,844</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>7,139</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>6,456</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>245,93K</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>-0,91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>44822</v>
+      </c>
+      <c r="B102" t="n">
+        <v>6.828</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>7,737</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>8,123</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>6,737</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>476,23K</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>-12,06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>44815</v>
+      </c>
+      <c r="B103" t="n">
+        <v>7.764</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>8,026</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>9,238</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>7,717</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>576,00K</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>-2,90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>44808</v>
+      </c>
+      <c r="B104" t="n">
+        <v>7.996</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>9,028</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>9,126</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>7,751</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>473,03K</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>-8,99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>44801</v>
+      </c>
+      <c r="B105" t="n">
+        <v>8.786</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>9,670</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>9,682</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>8,619</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>361,50K</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>-5,49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>44794</v>
+      </c>
+      <c r="B106" t="n">
+        <v>9.295999999999999</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>9,174</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>10,028</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>9,050</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>321,35K</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>-0,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>44787</v>
+      </c>
+      <c r="B107" t="n">
+        <v>9.336</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>8,679</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>9,677</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>8,403</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>454,89K</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>6,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>44780</v>
+      </c>
+      <c r="B108" t="n">
+        <v>8.768000000000001</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>7,876</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>8,994</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>7,532</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>527,99K</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>8,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>44773</v>
+      </c>
+      <c r="B109" t="n">
+        <v>8.064</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>7,910</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>8,480</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>7,550</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>558,56K</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>-2,01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>44766</v>
+      </c>
+      <c r="B110" t="n">
+        <v>8.228999999999999</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>8,390</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>9,752</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>8,010</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>240,26K</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>-0,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>44759</v>
+      </c>
+      <c r="B111" t="n">
+        <v>8.298999999999999</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>7,168</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>8,417</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>7,078</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>457,39K</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>18,29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>44752</v>
+      </c>
+      <c r="B112" t="n">
+        <v>7.016</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>6,446</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>7,144</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>6,014</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>585,16K</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>16,27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>44745</v>
+      </c>
+      <c r="B113" t="n">
+        <v>6.034</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>5,712</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>6,381</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>5,325</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>418,68K</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>5,31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>44738</v>
+      </c>
+      <c r="B114" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>6,126</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>6,833</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>5,357</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>407,32K</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>-7,88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>44731</v>
+      </c>
+      <c r="B115" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>6,800</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>6,976</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>6,021</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>317,09K</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>-10,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>44724</v>
+      </c>
+      <c r="B116" t="n">
+        <v>6.944</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>8,920</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>8,950</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>6,881</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>806,05K</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>-21,54%</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>44717</v>
+      </c>
+      <c r="B117" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>8,750</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>9,664</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>8,016</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>898,52K</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>3,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>44710</v>
+      </c>
+      <c r="B118" t="n">
+        <v>8.523</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>8,874</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>9,057</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>8,118</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>431,69K</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>-2,34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>44703</v>
+      </c>
+      <c r="B119" t="n">
+        <v>8.727</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>8,079</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>9,401</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>7,851</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>243,16K</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>7,97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>44696</v>
+      </c>
+      <c r="B120" t="n">
+        <v>8.083</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>7,700</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>8,548</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>7,663</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>426,94K</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>5,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>44689</v>
+      </c>
+      <c r="B121" t="n">
+        <v>7.663</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>7,843</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>8,287</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>6,430</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>701,11K</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>-4,72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B122" t="n">
+        <v>8.042999999999999</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>7,412</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>8,996</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>7,219</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>725,03K</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>11,03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>44675</v>
+      </c>
+      <c r="B123" t="n">
+        <v>7.244</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>6,414</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>7,422</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>6,345</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>325,36K</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>10,87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>44668</v>
+      </c>
+      <c r="B124" t="n">
+        <v>6.534</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>7,367</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>8,065</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>6,438</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>811,90K</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>-10,49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>44661</v>
+      </c>
+      <c r="B125" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>6,394</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>7,346</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>6,247</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>836,97K</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>16,28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>44654</v>
+      </c>
+      <c r="B126" t="n">
+        <v>6.278</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>5,745</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>6,538</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>5,650</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>849,97K</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>9,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>44647</v>
+      </c>
+      <c r="B127" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>5,551</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>5,832</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>5,255</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>492,26K</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>2,67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>44640</v>
+      </c>
+      <c r="B128" t="n">
+        <v>5.571</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>4,909</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>5,577</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>4,748</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>386,45K</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>14,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>44633</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4.863</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>4,705</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>5,001</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>4,459</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>402,54K</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>2,92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>44626</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>5,041</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>5,184</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>4,450</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>551,47K</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>-5,80%</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>44619</v>
+      </c>
+      <c r="B131" t="n">
+        <v>5.016</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>4,620</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>5,045</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>4,340</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>623,96K</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>12,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>44612</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>4,594</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>4,940</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>4,293</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>208,22K</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0,88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4.431</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>4,103</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>4,793</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>4,040</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>609,65K</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>12,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>44598</v>
+      </c>
+      <c r="B134" t="n">
+        <v>3.941</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>4,384</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>4,468</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>3,876</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>821,02K</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>-13,80%</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>44591</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4.572</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>4,867</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>5,572</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>4,487</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>961,39K</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>-1,44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>44584</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4.639</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>3,915</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>7,400</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>3,876</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>385,46K</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>16,00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>44577</v>
+      </c>
+      <c r="B137" t="n">
+        <v>3.999</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>4,356</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>4,390</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>3,781</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>410,45K</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>-6,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>44570</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4.262</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>4,144</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>4,879</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>3,977</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>847,22K</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>8,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>44563</v>
+      </c>
+      <c r="B139" t="n">
+        <v>3.916</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>3,702</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>3,980</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>3,638</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>572,87K</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>4,99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>44556</v>
+      </c>
+      <c r="B140" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>3,958</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>4,261</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>3,536</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>297,14K</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>-0,03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>44549</v>
+      </c>
+      <c r="B141" t="n">
+        <v>3.731</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>3,645</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>4,041</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>3,599</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>425,87K</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>44542</v>
+      </c>
+      <c r="B142" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>3,975</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>4,085</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>3,617</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>614,20K</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>-5,99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>44535</v>
+      </c>
+      <c r="B143" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>3,826</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>3,965</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>3,630</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>760,95K</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>-5,01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>44528</v>
+      </c>
+      <c r="B144" t="n">
+        <v>4.132</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>5,199</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>5,200</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>4,042</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>786,50K</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>-24,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>44521</v>
+      </c>
+      <c r="B145" t="n">
+        <v>5.447</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>4,910</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>5,562</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>4,648</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>190,74K</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>7,54%</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>44514</v>
+      </c>
+      <c r="B146" t="n">
+        <v>5.065</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>4,903</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>5,394</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>4,713</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>625,50K</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>5,72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>44507</v>
+      </c>
+      <c r="B147" t="n">
+        <v>4.791</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>5,605</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>5,663</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>4,725</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>800,40K</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>-13,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>44500</v>
+      </c>
+      <c r="B148" t="n">
+        <v>5.516</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>5,310</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>5,876</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>5,116</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>738,89K</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>1,66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>44493</v>
+      </c>
+      <c r="B149" t="n">
+        <v>5.426</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>5,468</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>6,291</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>5,401</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>427,41K</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>2,77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>44486</v>
+      </c>
+      <c r="B150" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>5,299</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>5,379</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>4,825</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>642,72K</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>-2,40%</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>44479</v>
+      </c>
+      <c r="B151" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>5,695</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>5,964</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>5,168</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>956,68K</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>-2,79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B152" t="n">
+        <v>5.565</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>5,628</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>6,466</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>5,393</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1,11M</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>-0,96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>44465</v>
+      </c>
+      <c r="B153" t="n">
+        <v>5.619</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>5,191</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>6,280</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>5,176</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>717,25K</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>9,32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>44458</v>
+      </c>
+      <c r="B154" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>5,015</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>5,183</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>4,735</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>581,38K</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>44451</v>
+      </c>
+      <c r="B155" t="n">
+        <v>5.105</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>4,945</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>5,650</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>4,879</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1,07M</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>3,38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>44444</v>
+      </c>
+      <c r="B156" t="n">
+        <v>4.938</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>4,710</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>5,058</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>4,557</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>794,29K</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>4,80%</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>44437</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4.712</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>4,499</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>4,727</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>4,215</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>843,47K</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>7,83%</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>44430</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>3,862</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>4,397</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>3,838</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>263,64K</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>13,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>44423</v>
+      </c>
+      <c r="B159" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>3,846</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>3,988</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>3,734</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>558,68K</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>-0,26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>44416</v>
+      </c>
+      <c r="B160" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>4,168</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>4,185</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>3,846</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>809,41K</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>-6,74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>44409</v>
+      </c>
+      <c r="B161" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>3,973</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>4,205</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>3,915</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>652,78K</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>5,77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>44402</v>
+      </c>
+      <c r="B162" t="n">
+        <v>3.914</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>4,025</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>4,187</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>3,855</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>380,58K</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>-3,60%</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>44395</v>
+      </c>
+      <c r="B163" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>3,703</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>4,071</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>3,686</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>530,53K</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>10,51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>44388</v>
+      </c>
+      <c r="B164" t="n">
+        <v>3.674</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>3,673</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>3,769</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>3,584</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>576,04K</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0,00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>44381</v>
+      </c>
+      <c r="B165" t="n">
+        <v>3.674</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>3,704</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>3,822</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>3,520</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>541,08K</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>-0,70%</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>44374</v>
+      </c>
+      <c r="B166" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>3,502</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>3,814</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>3,485</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>660,21K</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>5,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>44367</v>
+      </c>
+      <c r="B167" t="n">
+        <v>3.496</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>3,206</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>3,511</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>3,137</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>344,00K</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>8,74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>44360</v>
+      </c>
+      <c r="B168" t="n">
+        <v>3.215</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>3,315</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>3,369</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>3,166</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>633,81K</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>-2,46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>44353</v>
+      </c>
+      <c r="B169" t="n">
+        <v>3.296</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>3,109</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>3,330</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>3,033</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>825,19K</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>6,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>44346</v>
+      </c>
+      <c r="B170" t="n">
+        <v>3.097</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>3,036</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>3,150</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>3,010</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>526,95K</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>3,72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>44339</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2.986</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2,850</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>3,042</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>2,832</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>320,02K</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>2,75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>44332</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2.906</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>3,019</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>3,150</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>2,894</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>541,81K</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>-1,86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>44325</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2.961</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2,970</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>3,016</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>2,881</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>470,41K</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0,10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>44318</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2.958</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2,938</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>3,001</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>2,900</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>479,98K</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0,92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>44311</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2.931</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>2,710</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2,971</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>2,700</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>303,52K</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>7,36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>44304</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2,707</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2,779</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>2,657</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>478,42K</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>1,87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2,530</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2,700</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>2,529</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>669,80K</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>6,10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>44290</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2.526</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2,593</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2,616</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>2,453</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>684,22K</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>-4,28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>44283</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2.639</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>2,563</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2,688</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>2,530</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>199,42K</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>3,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>44276</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2.557</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>2,507</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2,592</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>2,478</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>320,26K</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0,87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>44269</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2.535</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2,558</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2,566</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>2,422</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>545,15K</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>-2,50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>44262</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>2,691</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2,734</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>2,584</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>545,35K</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>-3,74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>44255</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2.701</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>2,800</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2,887</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>2,681</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>534,30K</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>-2,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>44248</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2.771</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>3,010</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>3,030</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>2,697</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>349,13K</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>-9,71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>44241</v>
+      </c>
+      <c r="B185" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>3,046</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>3,316</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>2,976</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>746,28K</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>44234</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2.912</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>2,909</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>3,045</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>2,741</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1,11M</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>44227</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2.863</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>2,730</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>3,057</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>2,712</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1,10M</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>11,66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>44220</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2.564</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2,542</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2,773</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>2,504</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>373,73K</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>4,82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>44213</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2.446</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>2,652</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2,673</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>2,414</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>508,90K</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>-10,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>44206</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2.737</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>2,600</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2,899</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>2,589</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>861,96K</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>1,37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>44199</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>2,626</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2,770</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>2,566</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>707,11K</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>6,34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>44192</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2.539</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>2,311</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2,547</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>2,238</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>245,45K</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>44185</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2.518</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>2,730</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2,806</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>2,515</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>355,71K</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>-6,74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>44178</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>2,658</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2,724</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>2,596</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>685,43K</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>4,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>44171</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2.591</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>2,456</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2,630</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>2,368</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>992,62K</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0,62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>44164</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2.575</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>2,831</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2,996</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>2,462</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>838,82K</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>-9,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>44157</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2.843</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>2,705</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2,963</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>2,649</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>180,17K</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>7,28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>44150</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>2,871</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2,887</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>2,525</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>660,69K</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>-11,52%</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>44143</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2.995</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>2,872</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>3,087</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>2,821</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>677,80K</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>3,70%</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>44136</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2.888</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>3,374</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>3,393</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>2,866</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>846,93K</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>-13,89%</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>44129</v>
+      </c>
+      <c r="B201" t="n">
+        <v>3.354</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>2,941</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>3,396</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>2,907</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>413,46K</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>12,89%</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>44122</v>
+      </c>
+      <c r="B202" t="n">
+        <v>2.971</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>2,641</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>3,066</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>2,638</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>591,07K</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>7,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>44115</v>
+      </c>
+      <c r="B203" t="n">
+        <v>2.773</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>2,891</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2,955</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>2,610</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>839,48K</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>1,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>44108</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2.741</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2,455</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2,821</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>2,446</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>961,83K</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>12,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>44101</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2.438</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>2,105</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2,789</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>2,020</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>665,35K</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>13,98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>44094</v>
+      </c>
+      <c r="B206" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>1,991</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2,320</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>1,795</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>560,34K</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>4,44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>44087</v>
+      </c>
+      <c r="B207" t="n">
+        <v>2.048</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2,306</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2,399</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>1,926</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>770,01K</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>-9,74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>44080</v>
+      </c>
+      <c r="B208" t="n">
+        <v>2.269</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>2,586</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2,586</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>2,246</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>687,84K</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>-12,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>44073</v>
+      </c>
+      <c r="B209" t="n">
+        <v>2.588</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>2,629</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2,675</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>2,415</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1,00M</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>-2,60%</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>44066</v>
+      </c>
+      <c r="B210" t="n">
+        <v>2.657</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>2,460</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2,743</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>2,388</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>338,30K</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>8,54%</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>44059</v>
+      </c>
+      <c r="B211" t="n">
+        <v>2.448</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>2,392</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2,468</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>2,280</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>679,99K</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>3,90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>44052</v>
+      </c>
+      <c r="B212" t="n">
+        <v>2.356</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>2,257</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2,379</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>2,085</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>953,14K</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>5,27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>44045</v>
+      </c>
+      <c r="B213" t="n">
+        <v>2.238</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>1,859</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2,284</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>1,852</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>1,16M</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>24,40%</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>1,796</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>1,928</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>1,714</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>352,03K</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>-0,50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>1,700</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>1,818</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>1,605</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>609,76K</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>5,24%</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>44024</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1.718</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>1,785</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>1,815</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>1,690</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>638,75K</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>-4,82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>44017</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1.805</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>1,738</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>1,924</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>1,733</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>986,28K</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>4,09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>44010</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1.734</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>1,567</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>1,784</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>1,558</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>775,92K</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>15,99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>44003</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1.495</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>1,671</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>1,712</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>1,432</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>319,78K</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>-10,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>43996</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1.669</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>1,753</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>1,761</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>1,597</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>757,90K</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>-3,58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>43989</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>1,810</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>1,833</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>1,674</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>979,47K</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>-2,86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1.782</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>1,830</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>1,864</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>1,742</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>870,36K</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>-3,62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1.849</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>1,746</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>1,896</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>1,692</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>430,01K</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>6,82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>1,725</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>1,889</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>1,680</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>777,86K</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>5,16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1.646</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>1,838</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>1,890</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>1,595</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>1,08M</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>-9,71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1.823</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>1,961</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2,162</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>1,811</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>1,18M</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>-3,54%</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>43947</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>1,701</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2,016</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>1,593</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>581,24K</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>8,25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>43940</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1.746</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>1,774</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>1,974</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>1,701</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>847,55K</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>-0,40%</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>43933</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1.753</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>1,752</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>1,813</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>1,555</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>979,94K</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>1,15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>43926</v>
+      </c>
+      <c r="B230" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>1,650</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>1,918</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>1,630</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>879,46K</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>6,91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>43919</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1.621</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>1,630</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>1,731</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>1,521</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>709,01K</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>-0,80%</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>43912</v>
+      </c>
+      <c r="B232" t="n">
+        <v>1.634</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>1,533</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>1,716</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>1,519</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>327,82K</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>1,87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>43905</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1.604</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>1,854</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>1,854</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>1,555</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>897,77K</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>-14,18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>43898</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>1,678</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>1,998</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>1,610</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>1,46M</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>9,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>1,695</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>1,847</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>1,680</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>909,84K</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>1,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>43884</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1.684</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>1,884</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>1,884</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>1,642</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>647,95K</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>-11,60%</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>43877</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>1,880</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2,025</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>1,861</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>1,01M</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>3,70%</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>43870</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1.837</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>1,813</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>1,869</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>1,753</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>1,39M</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>-1,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>43863</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1.858</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>1,852</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>1,906</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>1,804</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>1,00M</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>0,92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>43856</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1.841</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>1,935</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>1,976</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>1,812</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>496,89K</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>-2,75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>43849</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>1,970</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>1,980</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>1,830</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>817,71K</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>-5,49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>43842</v>
+      </c>
+      <c r="B242" t="n">
+        <v>2.003</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2,210</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2,255</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>1,994</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>1,15M</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>-9,04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>43835</v>
+      </c>
+      <c r="B243" t="n">
+        <v>2.202</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2,112</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2,234</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>2,099</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>1,07M</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>3,38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>43828</v>
+      </c>
+      <c r="B244" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>2,247</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2,258</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>2,083</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>550,45K</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>-1,30%</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>43821</v>
+      </c>
+      <c r="B245" t="n">
+        <v>2.158</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>2,254</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2,297</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>2,138</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>240,08K</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>-7,30%</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>43814</v>
+      </c>
+      <c r="B246" t="n">
+        <v>2.328</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>2,296</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2,377</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>2,232</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>896,69K</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>1,39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>43807</v>
+      </c>
+      <c r="B247" t="n">
+        <v>2.296</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>2,210</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2,348</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>2,158</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>1,24M</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>-1,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>43800</v>
+      </c>
+      <c r="B248" t="n">
+        <v>2.334</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2,315</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2,510</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>2,289</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>1,15M</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>2,32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>43793</v>
+      </c>
+      <c r="B249" t="n">
+        <v>2.281</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2,689</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2,709</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>2,270</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>471,57K</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>-14,41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>43786</v>
+      </c>
+      <c r="B250" t="n">
+        <v>2.665</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2,641</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2,675</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>2,501</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>754,46K</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>-0,86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>43779</v>
+      </c>
+      <c r="B251" t="n">
+        <v>2.688</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2,716</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2,724</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>2,570</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>1,05M</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>-3,62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>43772</v>
+      </c>
+      <c r="B252" t="n">
+        <v>2.789</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2,796</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2,905</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>2,753</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>1,14M</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>2,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>43765</v>
+      </c>
+      <c r="B253" t="n">
+        <v>2.714</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2,366</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2,738</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>2,346</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>765,38K</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>18,00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>43758</v>
+      </c>
+      <c r="B254" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2,320</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2,342</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>2,213</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>786,68K</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>-0,86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>43751</v>
+      </c>
+      <c r="B255" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2,238</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2,384</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>2,228</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>850,65K</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>4,79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>43744</v>
+      </c>
+      <c r="B256" t="n">
+        <v>2.214</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>2,333</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2,342</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>2,187</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>1,07M</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>-5,87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>43737</v>
+      </c>
+      <c r="B257" t="n">
+        <v>2.352</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>2,380</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2,398</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>2,207</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>1,05M</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>-2,16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>43730</v>
+      </c>
+      <c r="B258" t="n">
+        <v>2.404</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>2,522</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2,590</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>2,380</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>375,13K</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>-5,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>43723</v>
+      </c>
+      <c r="B259" t="n">
+        <v>2.534</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>2,688</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2,710</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>2,506</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>865,47K</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>-3,06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>43716</v>
+      </c>
+      <c r="B260" t="n">
+        <v>2.614</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>2,527</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2,648</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>2,496</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>1,15M</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>4,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="B261" t="n">
+        <v>2.496</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>2,288</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2,505</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>2,269</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>871,52K</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>9,23%</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>43702</v>
+      </c>
+      <c r="B262" t="n">
+        <v>2.285</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2,169</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2,310</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>2,159</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>449,79K</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>6,18%</t>
         </is>
       </c>
     </row>
